--- a/Data/Sampling_input_maths.xlsx
+++ b/Data/Sampling_input_maths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XYANG118\OneDrive - Volvo Cars\Documents\glance_simulation\sim3\Glance_sampling\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D1F455-D0AC-4C6B-8959-8E557644EB8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DBF1AF-3A00-4B42-BE32-BA840CE5CDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -440,7 +440,7 @@
   <dimension ref="A1:AML12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/Sampling_input_maths.xlsx
+++ b/Data/Sampling_input_maths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XYANG118\OneDrive - Volvo Cars\Documents\glance_simulation\sim3\Glance_sampling\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6412E782-8262-4610-975C-A653BC5EDB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DBF1AF-3A00-4B42-BE32-BA840CE5CDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="16">
   <si>
     <t>sim_order</t>
   </si>
@@ -82,12 +82,6 @@
   </si>
   <si>
     <t>naive</t>
-  </si>
-  <si>
-    <t>prediction uncertainty</t>
-  </si>
-  <si>
-    <t>model uncertainty</t>
   </si>
 </sst>
 </file>
@@ -446,7 +440,7 @@
   <dimension ref="A1:AML12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,8 +513,9 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
+      <c r="E3" s="2" t="str">
+        <f xml:space="preserve"> "+ prediction uncertainty"</f>
+        <v>+ prediction uncertainty</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>7</v>
@@ -543,8 +538,9 @@
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
+      <c r="E4" s="2" t="str">
+        <f>"+ model uncertainty"</f>
+        <v>+ model uncertainty</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>7</v>
@@ -591,8 +587,9 @@
       <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
+      <c r="E6" s="2" t="str">
+        <f xml:space="preserve"> "+ prediction uncertainty"</f>
+        <v>+ prediction uncertainty</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>8</v>
@@ -615,8 +612,9 @@
       <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>17</v>
+      <c r="E7" s="2" t="str">
+        <f>"+ model uncertainty"</f>
+        <v>+ model uncertainty</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>8</v>
